--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08294131002118</v>
+        <v>2.095195666666667</v>
       </c>
       <c r="N2">
-        <v>2.08294131002118</v>
+        <v>6.285587</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8546922300706357</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8546922300706358</v>
       </c>
       <c r="Q2">
-        <v>70.15493329567514</v>
+        <v>313.5593590563023</v>
       </c>
       <c r="R2">
-        <v>70.15493329567514</v>
+        <v>2822.034231506721</v>
       </c>
       <c r="S2">
-        <v>0.2636985015108322</v>
+        <v>0.5060941062373749</v>
       </c>
       <c r="T2">
-        <v>0.2636985015108322</v>
+        <v>0.5060941062373751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.1168129681512</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>50.1168129681512</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.3923827662612752</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.3923827662612752</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.08294131002118</v>
+        <v>0.356208</v>
       </c>
       <c r="N3">
-        <v>2.08294131002118</v>
+        <v>1.068624</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1453077699293643</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1453077699293643</v>
       </c>
       <c r="Q3">
-        <v>104.3903800579673</v>
+        <v>53.30879303908799</v>
       </c>
       <c r="R3">
-        <v>104.3903800579673</v>
+        <v>479.779137351792</v>
       </c>
       <c r="S3">
-        <v>0.3923827662612752</v>
+        <v>0.08604197319738134</v>
       </c>
       <c r="T3">
-        <v>0.3923827662612752</v>
+        <v>0.08604197319738136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.9267782923779</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H4">
-        <v>43.9267782923779</v>
+        <v>158.202374</v>
       </c>
       <c r="I4">
-        <v>0.3439187322278927</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J4">
-        <v>0.3439187322278927</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.08294131002118</v>
+        <v>2.095195666666667</v>
       </c>
       <c r="N4">
-        <v>2.08294131002118</v>
+        <v>6.285587</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.8546922300706357</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8546922300706358</v>
       </c>
       <c r="Q4">
-        <v>91.49690112133555</v>
+        <v>110.4883094870598</v>
       </c>
       <c r="R4">
-        <v>91.49690112133555</v>
+        <v>994.3947853835379</v>
       </c>
       <c r="S4">
-        <v>0.3439187322278927</v>
+        <v>0.1783314087891458</v>
       </c>
       <c r="T4">
-        <v>0.3439187322278927</v>
+        <v>0.1783314087891459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>52.73412466666667</v>
+      </c>
+      <c r="H5">
+        <v>158.202374</v>
+      </c>
+      <c r="I5">
+        <v>0.208649853730866</v>
+      </c>
+      <c r="J5">
+        <v>0.208649853730866</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.356208</v>
+      </c>
+      <c r="N5">
+        <v>1.068624</v>
+      </c>
+      <c r="O5">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="P5">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="Q5">
+        <v>18.784317079264</v>
+      </c>
+      <c r="R5">
+        <v>169.058853713376</v>
+      </c>
+      <c r="S5">
+        <v>0.03031844494172019</v>
+      </c>
+      <c r="T5">
+        <v>0.03031844494172019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>50.34932566666667</v>
+      </c>
+      <c r="H6">
+        <v>151.047977</v>
+      </c>
+      <c r="I6">
+        <v>0.1992140668343777</v>
+      </c>
+      <c r="J6">
+        <v>0.1992140668343777</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N6">
+        <v>6.285587</v>
+      </c>
+      <c r="O6">
+        <v>0.8546922300706357</v>
+      </c>
+      <c r="P6">
+        <v>0.8546922300706358</v>
+      </c>
+      <c r="Q6">
+        <v>105.4916889563888</v>
+      </c>
+      <c r="R6">
+        <v>949.4252006074989</v>
+      </c>
+      <c r="S6">
+        <v>0.1702667150441149</v>
+      </c>
+      <c r="T6">
+        <v>0.1702667150441149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>50.34932566666667</v>
+      </c>
+      <c r="H7">
+        <v>151.047977</v>
+      </c>
+      <c r="I7">
+        <v>0.1992140668343777</v>
+      </c>
+      <c r="J7">
+        <v>0.1992140668343777</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.356208</v>
+      </c>
+      <c r="N7">
+        <v>1.068624</v>
+      </c>
+      <c r="O7">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="P7">
+        <v>0.1453077699293643</v>
+      </c>
+      <c r="Q7">
+        <v>17.934832597072</v>
+      </c>
+      <c r="R7">
+        <v>161.413493373648</v>
+      </c>
+      <c r="S7">
+        <v>0.02894735179026275</v>
+      </c>
+      <c r="T7">
+        <v>0.02894735179026275</v>
       </c>
     </row>
   </sheetData>
